--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed4/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.828</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.828</v>
+        <v>-21.778</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.622</v>
+        <v>17.646</v>
       </c>
     </row>
     <row r="13">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.41</v>
+        <v>-22.156</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.61</v>
+        <v>-19.918</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.594</v>
+        <v>16.525</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-22.01</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.531</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>16.941</v>
       </c>
     </row>
     <row r="30">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.74</v>
+        <v>16.855</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.63</v>
+        <v>16.741</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.806</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.676</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="56">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.654</v>
+        <v>-21.55700000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.002</v>
+        <v>17.438</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.622</v>
+        <v>17.524</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.043</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.152</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.678</v>
+        <v>16.886</v>
       </c>
     </row>
     <row r="84">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.924</v>
+        <v>16.724</v>
       </c>
     </row>
   </sheetData>
